--- a/雛型データ/月例点検結果_雛型.xlsx
+++ b/雛型データ/月例点検結果_雛型.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19010359\Desktop\My_python\Monthly-inspection-data-transform\雛型データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B6A272-3978-413A-B9B2-833B8B7CE819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820FB057-B1F4-42FA-AA9D-6315DCC53D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>月例点検結果</t>
     <rPh sb="0" eb="2">
@@ -182,6 +182,16 @@
     <t>年度</t>
     <rPh sb="0" eb="2">
       <t>ネンド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>環境・バイオ研究室</t>
+    <rPh sb="0" eb="2">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ケンキュウシツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -190,7 +200,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,6 +282,15 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -445,7 +464,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -473,6 +492,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -482,9 +507,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -507,7 +529,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -524,55 +549,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>289126</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>54428</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>43543</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>762001</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44263B0F-B731-2458-E1E4-C8B35B4C6AC9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8965040" y="54428"/>
-          <a:ext cx="4435274" cy="707573"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -841,10 +817,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y50"/>
+  <dimension ref="A1:Y49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -865,30 +841,32 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
       <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
+      <c r="N1" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:25" ht="22.8" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="16"/>
+      <c r="C2" s="14"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -900,12 +878,12 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-      <c r="O2" s="20">
+      <c r="O2" s="21">
         <f ca="1">YEAR(NOW())</f>
         <v>2024</v>
       </c>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="13" t="s">
+      <c r="P2" s="22"/>
+      <c r="Q2" s="15" t="s">
         <v>23</v>
       </c>
       <c r="R2" s="10"/>
@@ -926,9 +904,9 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="14"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="16"/>
       <c r="R3" s="11"/>
       <c r="S3" s="1"/>
     </row>
@@ -937,11 +915,11 @@
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="6"/>
@@ -960,8 +938,8 @@
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -983,8 +961,8 @@
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="20"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="9" t="s">
@@ -1009,16 +987,16 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="1"/>
@@ -1030,39 +1008,39 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="1"/>
     </row>
     <row r="9" spans="1:25" ht="22.8">
       <c r="A9" s="2"/>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="16"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
@@ -1459,29 +1437,29 @@
       <c r="R26" s="3"/>
       <c r="S26" s="1"/>
     </row>
-    <row r="27" spans="1:19">
-      <c r="A27" s="3"/>
+    <row r="27" spans="1:19" ht="24" customHeight="1">
+      <c r="A27" s="1"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="1"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
       <c r="S27" s="1"/>
     </row>
-    <row r="28" spans="1:19" ht="21" customHeight="1">
-      <c r="A28" s="3"/>
+    <row r="28" spans="1:19" ht="24" customHeight="1">
+      <c r="A28" s="1"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1490,15 +1468,15 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="1"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
       <c r="S28" s="1"/>
     </row>
     <row r="29" spans="1:19" ht="21.6" customHeight="1">
@@ -1522,24 +1500,24 @@
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
     </row>
-    <row r="30" spans="1:19" ht="21.6" customHeight="1">
+    <row r="30" spans="1:19">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
     </row>
@@ -1550,27 +1528,27 @@
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
       <c r="S31" s="1"/>
     </row>
     <row r="32" spans="1:19">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -1592,18 +1570,18 @@
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
       <c r="S33" s="1"/>
     </row>
     <row r="34" spans="1:19">
@@ -1942,31 +1920,11 @@
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
     </row>
-    <row r="50" spans="1:19">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
-      <c r="Q50" s="1"/>
-      <c r="R50" s="1"/>
-      <c r="S50" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="N1:R1"/>
     <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="E1:L1"/>
     <mergeCell ref="G7:P9"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B2:C2"/>
@@ -1978,6 +1936,5 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>